--- a/inputfiles/QuibblePond/Quibble_Pond.xlsx
+++ b/inputfiles/QuibblePond/Quibble_Pond.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SubsurfaceSinks\inputfiles\QuibblePond\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SubsurfaceSinks\inputfiles\QuibblePond\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BB284B-AC00-4E1F-AB3B-075296A63201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957869BA-5EB9-4ADB-A0CF-0CC68FDE288B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
+    <sheet name="LOCSUMM" sheetId="1" r:id="rId1"/>
     <sheet name="DimCalcs" sheetId="2" r:id="rId2"/>
+    <sheet name="PONDSUMM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Compartment</t>
   </si>
@@ -144,19 +143,40 @@
     <t>High Flow</t>
   </si>
   <si>
-    <t>Width - changes across, but generally</t>
-  </si>
-  <si>
-    <t>Beginning</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>End</t>
+    <t>1:250 scale</t>
+  </si>
+  <si>
+    <t>dX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Pond Width</t>
+  </si>
+  <si>
+    <t>Middle Berm</t>
+  </si>
+  <si>
+    <t>masl</t>
+  </si>
+  <si>
+    <t>*Assuming still flowing in same path</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Channel Area</t>
+  </si>
+  <si>
+    <t>Top of Pond Area</t>
+  </si>
+  <si>
+    <t>Regular Depth Width</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -164,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -666,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -676,13 +696,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -745,16 +767,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>113927</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>30361</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>355227</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>52772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -784,8 +806,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5540375" y="0"/>
-          <a:ext cx="11823700" cy="7447161"/>
+          <a:off x="17662339" y="403411"/>
+          <a:ext cx="11738535" cy="7840861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,9 +830,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -848,7 +870,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -954,7 +976,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1096,7 +1118,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1107,20 +1129,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1184,14 +1206,14 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <f>30*250/100</f>
-        <v>75</v>
+        <f>DimCalcs!B66</f>
+        <v>150.97999999999999</v>
       </c>
       <c r="E2">
         <v>1000</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
         <f>1-M2</f>
@@ -1223,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1234,14 +1256,14 @@
         <v>0.05</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">30*250/100</f>
-        <v>75</v>
+        <f>$D$2</f>
+        <v>150.97999999999999</v>
       </c>
       <c r="E3">
         <v>2605</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <f>1-M3</f>
@@ -1276,7 +1298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1287,14 +1309,14 @@
         <v>0.5</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f t="shared" ref="D4:D9" si="0">$D$2</f>
+        <v>150.97999999999999</v>
       </c>
       <c r="E4">
         <v>2605</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <f>1-M4</f>
@@ -1332,7 +1354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1344,13 +1366,13 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>150.97999999999999</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0.94199999999999995</v>
@@ -1378,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1390,13 +1412,13 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>150.97999999999999</v>
       </c>
       <c r="E6">
         <v>1000</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0.94199999999999995</v>
@@ -1424,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1436,13 +1458,13 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>150.97999999999999</v>
       </c>
       <c r="E7">
         <v>1000</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.94199999999999995</v>
@@ -1473,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1486,13 +1508,13 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>150.97999999999999</v>
       </c>
       <c r="E8">
         <v>850</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0.66</v>
@@ -1524,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1536,11 +1558,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>150.97999999999999</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G9" s="11">
         <f>3*0.000001</f>
@@ -1567,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1577,25 +1599,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDB8D66-DC7B-4FF0-9E77-E1ECBCAC71AF}">
-  <dimension ref="B4:H52"/>
+  <dimension ref="B4:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -1605,8 +1637,12 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -1617,7 +1653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1629,244 +1665,1487 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>72.5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>72.5</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+        <f>73-C9</f>
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <f>73-C10</f>
-        <v>0.5</v>
+        <f>73.4-C9</f>
+        <v>0.90000000000000568</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12">
-        <f>74.3-C10</f>
+        <f>74.3-C9</f>
         <v>1.7999999999999972</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12">
+        <f>SQRT(3)</f>
+        <v>1.7320508075688772</v>
+      </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <f>SQRT(5)</f>
+        <v>2.2360679774997898</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14">
+        <f>SQRT(5+3)</f>
+        <v>2.8284271247461903</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>-7.7</v>
+      </c>
+      <c r="C16">
+        <v>7.7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>C17</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1.49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15">
-        <f>250*C15/1000</f>
-        <v>11.25</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16:E17" si="0">250*C16/1000</f>
-        <v>7.5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>45</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D37" s="3"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D38" s="3"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D39" s="3"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D40" s="3"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D41" s="3"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D42" s="3"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D43" s="3"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D44" s="3"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D45" s="3"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D46" s="3"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D47" s="3"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D48" s="3"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D49" s="3"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D50" s="3"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D52" s="3"/>
+      <c r="L17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>SUM($C$17:C18)</f>
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>3.11</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>K18</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>SUM(E16:E67)</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>K18*I18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>SUM($C$17:C19)</f>
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <f>J18+I19*(SQRT(5)+SQRT(17))*SUM(C17:C67)</f>
+        <v>511.05498661453385</v>
+      </c>
+      <c r="K19">
+        <f>SUM(H21:H67)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>K19*I19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>SUM($C$17:C20)</f>
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="K20">
+        <f>SUM(J21:J67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>SUM($C$17:C21)</f>
+        <v>22.61</v>
+      </c>
+      <c r="C21">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9.84</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>SUM($C$17:C22)</f>
+        <v>27.619999999999997</v>
+      </c>
+      <c r="C22">
+        <v>5.01</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10.63</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>SUM($C$17:C23)</f>
+        <v>32.659999999999997</v>
+      </c>
+      <c r="C23">
+        <v>5.04</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10.41</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM($C$17:C24)</f>
+        <v>35.809999999999995</v>
+      </c>
+      <c r="C24">
+        <v>3.15</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10.53</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>SUM($C$17:C25)</f>
+        <v>45.669999999999995</v>
+      </c>
+      <c r="C25">
+        <v>9.86</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6.87</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>SUM($C$17:C26)</f>
+        <v>51.749999999999993</v>
+      </c>
+      <c r="C26">
+        <v>6.08</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5.24</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>SUM($C$17:C27)</f>
+        <v>53.689999999999991</v>
+      </c>
+      <c r="C27">
+        <v>1.94</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.63</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>SUM($C$17:C28)</f>
+        <v>57.79999999999999</v>
+      </c>
+      <c r="C28">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3.43</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>SUM($C$17:C29)</f>
+        <v>61.409999999999989</v>
+      </c>
+      <c r="C29">
+        <v>3.61</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>SUM($C$17:C30)</f>
+        <v>64.61999999999999</v>
+      </c>
+      <c r="C30">
+        <v>3.21</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>SUM($C$17:C31)</f>
+        <v>69.569999999999993</v>
+      </c>
+      <c r="C31">
+        <v>4.95</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>SUM($C$17:C32)</f>
+        <v>71.08</v>
+      </c>
+      <c r="C32">
+        <v>1.51</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>SUM($C$17:C33)</f>
+        <v>72.37</v>
+      </c>
+      <c r="C33">
+        <v>1.29</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>SUM($C$17:C34)</f>
+        <v>73.430000000000007</v>
+      </c>
+      <c r="C34">
+        <v>1.06</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4.01</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>SUM($C$17:C35)</f>
+        <v>74.2</v>
+      </c>
+      <c r="C35">
+        <v>0.77</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5.59</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>SUM($C$17:C36)</f>
+        <v>74.600000000000009</v>
+      </c>
+      <c r="C36">
+        <v>0.4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5.63</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>SUM($C$17:C37)</f>
+        <v>75.12</v>
+      </c>
+      <c r="C37">
+        <v>0.52</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3.94</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>SUM($C$17:C38)</f>
+        <v>76.37</v>
+      </c>
+      <c r="C38">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2.78</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>SUM($C$17:C39)</f>
+        <v>77.460000000000008</v>
+      </c>
+      <c r="C39">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>SUM($C$17:C40)</f>
+        <v>78.63000000000001</v>
+      </c>
+      <c r="C40">
+        <v>1.17</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>SUM($C$17:C41)</f>
+        <v>79.440000000000012</v>
+      </c>
+      <c r="C41">
+        <v>0.81</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>SUM($C$17:C42)</f>
+        <v>80.030000000000015</v>
+      </c>
+      <c r="C42">
+        <v>0.59</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>SUM($C$17:C43)</f>
+        <v>80.470000000000013</v>
+      </c>
+      <c r="C43">
+        <v>0.44</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>SUM($C$17:C44)</f>
+        <v>81.160000000000011</v>
+      </c>
+      <c r="C44">
+        <v>0.69</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>SUM($C$17:C45)</f>
+        <v>83.250000000000014</v>
+      </c>
+      <c r="C45">
+        <v>2.09</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>SUM($C$17:C46)</f>
+        <v>84.65000000000002</v>
+      </c>
+      <c r="C46">
+        <v>1.4</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>SUM($C$17:C47)</f>
+        <v>86.620000000000019</v>
+      </c>
+      <c r="C47">
+        <v>1.97</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>SUM($C$17:C48)</f>
+        <v>88.750000000000014</v>
+      </c>
+      <c r="C48">
+        <v>2.13</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f>SUM($C$17:C49)</f>
+        <v>90.610000000000014</v>
+      </c>
+      <c r="C49">
+        <v>1.86</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f>SUM($C$17:C50)</f>
+        <v>92.960000000000008</v>
+      </c>
+      <c r="C50">
+        <v>2.35</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f>SUM($C$17:C51)</f>
+        <v>95.79</v>
+      </c>
+      <c r="C51">
+        <v>2.83</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>SUM($C$17:C52)</f>
+        <v>100.04</v>
+      </c>
+      <c r="C52">
+        <v>4.25</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f>SUM($C$17:C53)</f>
+        <v>103.16000000000001</v>
+      </c>
+      <c r="C53">
+        <v>3.12</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5.07</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f>SUM($C$17:C54)</f>
+        <v>106.97000000000001</v>
+      </c>
+      <c r="C54">
+        <v>3.81</v>
+      </c>
+      <c r="D54" s="3">
+        <v>6.35</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>SUM($C$17:C55)</f>
+        <v>111.60000000000001</v>
+      </c>
+      <c r="C55">
+        <v>4.63</v>
+      </c>
+      <c r="D55" s="3">
+        <v>9.15</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>SUM($C$17:C56)</f>
+        <v>114.34</v>
+      </c>
+      <c r="C56">
+        <v>2.74</v>
+      </c>
+      <c r="D56" s="3">
+        <v>11.86</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>SUM($C$17:C57)</f>
+        <v>116.04</v>
+      </c>
+      <c r="C57">
+        <v>1.7</v>
+      </c>
+      <c r="D57" s="3">
+        <v>14.23</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>SUM($C$17:C58)</f>
+        <v>118.51</v>
+      </c>
+      <c r="C58">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D58" s="3">
+        <v>15.04</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f>SUM($C$17:C59)</f>
+        <v>120.14</v>
+      </c>
+      <c r="C59">
+        <v>1.63</v>
+      </c>
+      <c r="D59" s="3">
+        <v>13.93</v>
+      </c>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>SUM($C$17:C60)</f>
+        <v>124.23</v>
+      </c>
+      <c r="C60">
+        <v>4.09</v>
+      </c>
+      <c r="D60" s="3">
+        <v>10.45</v>
+      </c>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f>SUM($C$17:C61)</f>
+        <v>128.1</v>
+      </c>
+      <c r="C61">
+        <v>3.87</v>
+      </c>
+      <c r="D61" s="3">
+        <v>7.81</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f>SUM($C$17:C62)</f>
+        <v>135.18</v>
+      </c>
+      <c r="C62">
+        <v>7.08</v>
+      </c>
+      <c r="D62" s="3">
+        <v>6.23</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f>SUM($C$17:C63)</f>
+        <v>141.91</v>
+      </c>
+      <c r="C63">
+        <v>6.73</v>
+      </c>
+      <c r="D63" s="3">
+        <v>6.87</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f>SUM($C$17:C64)</f>
+        <v>146.69</v>
+      </c>
+      <c r="C64">
+        <v>4.78</v>
+      </c>
+      <c r="D64" s="3">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f>SUM($C$17:C65)</f>
+        <v>149.97999999999999</v>
+      </c>
+      <c r="C65">
+        <v>3.29</v>
+      </c>
+      <c r="D65" s="3">
+        <v>6.33</v>
+      </c>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f>SUM($C$17:C66)</f>
+        <v>150.97999999999999</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f>SUM($C$17:C67)</f>
+        <v>160.72999999999999</v>
+      </c>
+      <c r="C67">
+        <v>9.75</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CF1E4B-AFCE-4E20-B32A-6C8DEE31026C}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>DimCalcs!B17</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>DimCalcs!B18</f>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>DimCalcs!B19</f>
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>DimCalcs!B20</f>
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>DimCalcs!B21</f>
+        <v>22.61</v>
+      </c>
+      <c r="B6">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>DimCalcs!B22</f>
+        <v>27.619999999999997</v>
+      </c>
+      <c r="B7">
+        <v>5.01</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>DimCalcs!B23</f>
+        <v>32.659999999999997</v>
+      </c>
+      <c r="B8">
+        <v>5.04</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>DimCalcs!B24</f>
+        <v>35.809999999999995</v>
+      </c>
+      <c r="B9">
+        <v>3.15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>DimCalcs!B25</f>
+        <v>45.669999999999995</v>
+      </c>
+      <c r="B10">
+        <v>9.86</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>DimCalcs!B26</f>
+        <v>51.749999999999993</v>
+      </c>
+      <c r="B11">
+        <v>6.08</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>DimCalcs!B27</f>
+        <v>53.689999999999991</v>
+      </c>
+      <c r="B12">
+        <v>1.94</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>DimCalcs!B28</f>
+        <v>57.79999999999999</v>
+      </c>
+      <c r="B13">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>DimCalcs!B29</f>
+        <v>61.409999999999989</v>
+      </c>
+      <c r="B14">
+        <v>3.61</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>DimCalcs!B30</f>
+        <v>64.61999999999999</v>
+      </c>
+      <c r="B15">
+        <v>3.21</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>DimCalcs!B31</f>
+        <v>69.569999999999993</v>
+      </c>
+      <c r="B16">
+        <v>4.95</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>DimCalcs!B32</f>
+        <v>71.08</v>
+      </c>
+      <c r="B17">
+        <v>1.51</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>DimCalcs!B33</f>
+        <v>72.37</v>
+      </c>
+      <c r="B18">
+        <v>1.29</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>DimCalcs!B34</f>
+        <v>73.430000000000007</v>
+      </c>
+      <c r="B19">
+        <v>1.06</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>DimCalcs!B35</f>
+        <v>74.2</v>
+      </c>
+      <c r="B20">
+        <v>0.77</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>DimCalcs!B36</f>
+        <v>74.600000000000009</v>
+      </c>
+      <c r="B21">
+        <v>0.4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>DimCalcs!B37</f>
+        <v>75.12</v>
+      </c>
+      <c r="B22">
+        <v>0.52</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>DimCalcs!B38</f>
+        <v>76.37</v>
+      </c>
+      <c r="B23">
+        <v>1.25</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>DimCalcs!B39</f>
+        <v>77.460000000000008</v>
+      </c>
+      <c r="B24">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>DimCalcs!B40</f>
+        <v>78.63000000000001</v>
+      </c>
+      <c r="B25">
+        <v>1.17</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>DimCalcs!B41</f>
+        <v>79.440000000000012</v>
+      </c>
+      <c r="B26">
+        <v>0.81</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>DimCalcs!B42</f>
+        <v>80.030000000000015</v>
+      </c>
+      <c r="B27">
+        <v>0.59</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>DimCalcs!B43</f>
+        <v>80.470000000000013</v>
+      </c>
+      <c r="B28">
+        <v>0.44</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>DimCalcs!B44</f>
+        <v>81.160000000000011</v>
+      </c>
+      <c r="B29">
+        <v>0.69</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>DimCalcs!B45</f>
+        <v>83.250000000000014</v>
+      </c>
+      <c r="B30">
+        <v>2.09</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>DimCalcs!B46</f>
+        <v>84.65000000000002</v>
+      </c>
+      <c r="B31">
+        <v>1.4</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>DimCalcs!B47</f>
+        <v>86.620000000000019</v>
+      </c>
+      <c r="B32">
+        <v>1.97</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>DimCalcs!B48</f>
+        <v>88.750000000000014</v>
+      </c>
+      <c r="B33">
+        <v>2.13</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>DimCalcs!B49</f>
+        <v>90.610000000000014</v>
+      </c>
+      <c r="B34">
+        <v>1.86</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>DimCalcs!B50</f>
+        <v>92.960000000000008</v>
+      </c>
+      <c r="B35">
+        <v>2.35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>DimCalcs!B51</f>
+        <v>95.79</v>
+      </c>
+      <c r="B36">
+        <v>2.83</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>DimCalcs!B52</f>
+        <v>100.04</v>
+      </c>
+      <c r="B37">
+        <v>4.25</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>DimCalcs!B53</f>
+        <v>103.16000000000001</v>
+      </c>
+      <c r="B38">
+        <v>3.12</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>DimCalcs!B54</f>
+        <v>106.97000000000001</v>
+      </c>
+      <c r="B39">
+        <v>3.81</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>DimCalcs!B55</f>
+        <v>111.60000000000001</v>
+      </c>
+      <c r="B40">
+        <v>4.63</v>
+      </c>
+      <c r="C40" s="3">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>DimCalcs!B56</f>
+        <v>114.34</v>
+      </c>
+      <c r="B41">
+        <v>2.74</v>
+      </c>
+      <c r="C41" s="3">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>DimCalcs!B57</f>
+        <v>116.04</v>
+      </c>
+      <c r="B42">
+        <v>1.7</v>
+      </c>
+      <c r="C42" s="3">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>DimCalcs!B58</f>
+        <v>118.51</v>
+      </c>
+      <c r="B43">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C43" s="3">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>DimCalcs!B59</f>
+        <v>120.14</v>
+      </c>
+      <c r="B44">
+        <v>1.63</v>
+      </c>
+      <c r="C44" s="3">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>DimCalcs!B60</f>
+        <v>124.23</v>
+      </c>
+      <c r="B45">
+        <v>4.09</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>DimCalcs!B61</f>
+        <v>128.1</v>
+      </c>
+      <c r="B46">
+        <v>3.87</v>
+      </c>
+      <c r="C46" s="3">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>DimCalcs!B62</f>
+        <v>135.18</v>
+      </c>
+      <c r="B47">
+        <v>7.08</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>DimCalcs!B63</f>
+        <v>141.91</v>
+      </c>
+      <c r="B48">
+        <v>6.73</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>DimCalcs!B64</f>
+        <v>146.69</v>
+      </c>
+      <c r="B49">
+        <v>4.78</v>
+      </c>
+      <c r="C49" s="3">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>DimCalcs!B65</f>
+        <v>149.97999999999999</v>
+      </c>
+      <c r="B50">
+        <v>3.29</v>
+      </c>
+      <c r="C50" s="3">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>DimCalcs!B66</f>
+        <v>150.97999999999999</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputfiles/QuibblePond/Quibble_Pond.xlsx
+++ b/inputfiles/QuibblePond/Quibble_Pond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SubsurfaceSinks\inputfiles\QuibblePond\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957869BA-5EB9-4ADB-A0CF-0CC68FDE288B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E386D54-2E53-42A9-9F78-3724D5AB3656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCSUMM" sheetId="1" r:id="rId1"/>
@@ -1129,7 +1129,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -1601,7 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDB8D66-DC7B-4FF0-9E77-E1ECBCAC71AF}">
   <dimension ref="B4:N67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
